--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\graduation_requirement_computation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1649D-A98B-4303-B86F-FA69A10144BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FBB46C-975A-41F1-9CD1-3A6CF4C889BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2301,21 +2301,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right style="medium">
-        <color theme="8"/>
-      </right>
-      <top style="medium">
-        <color theme="8"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2395,6 +2380,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="8"/>
+      </left>
+      <right style="medium">
+        <color theme="8"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2773,7 +2773,7 @@
     <xf numFmtId="176" fontId="6" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="25" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="25" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2782,24 +2782,27 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2809,12 +2812,66 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2824,9 +2881,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2845,67 +2899,13 @@
     <xf numFmtId="49" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2913,18 +2913,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="55">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0&quot;학번&quot;"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3076,6 +3064,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0&quot;학번&quot;"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3252,36 +3252,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D177F641-119F-4E5D-8618-B0F36F04C4A9}" name="표8" displayName="표8" ref="B6:M13" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B6:M13" xr:uid="{D177F641-119F-4E5D-8618-B0F36F04C4A9}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3E000FE0-06DA-47DB-9462-01686BF81D7D}" name="학번" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{C1398AA6-1813-4419-A1BC-E42376CF6A9A}" name="1-1. 기초과학 분야_x000a_- 수학" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{3E000FE0-06DA-47DB-9462-01686BF81D7D}" name="학번" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{C1398AA6-1813-4419-A1BC-E42376CF6A9A}" name="1-1. 기초과학 분야_x000a_- 수학" dataDxfId="40">
       <calculatedColumnFormula>공통졸업요건!$E$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{16402FF2-45B9-4F20-9D38-0CF321CCECE2}" name="1-2. 기초과학 분야_x000a_- 과학" dataDxfId="41">
+    <tableColumn id="3" xr3:uid="{16402FF2-45B9-4F20-9D38-0CF321CCECE2}" name="1-2. 기초과학 분야_x000a_- 과학" dataDxfId="39">
       <calculatedColumnFormula>공통졸업요건!$E$18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4A0B3545-C6BE-491B-834A-7F75FDF00177}" name="2-1. 언어의 기초 분야_x000a_- 영어" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{4A0B3545-C6BE-491B-834A-7F75FDF00177}" name="2-1. 언어의 기초 분야_x000a_- 영어" dataDxfId="38">
       <calculatedColumnFormula>공통졸업요건!$E$34</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{33CBC962-F37C-47D1-B39B-296110C78297}" name="2-2. 언어의 기초 분야_x000a_- 글쓰기" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{33CBC962-F37C-47D1-B39B-296110C78297}" name="2-2. 언어의 기초 분야_x000a_- 글쓰기" dataDxfId="37">
       <calculatedColumnFormula>공통졸업요건!$E$44</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D4988217-9E9A-4CAE-B8BD-4EBA071A391E}" name="3. 인문사회 분야" dataDxfId="38">
+    <tableColumn id="6" xr3:uid="{D4988217-9E9A-4CAE-B8BD-4EBA071A391E}" name="3. 인문사회 분야" dataDxfId="36">
       <calculatedColumnFormula>공통졸업요건!$E$57</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FEC002AC-A59B-4A35-974C-00FC77C0B2DD}" name="4. 소프트웨어" dataDxfId="37">
+    <tableColumn id="7" xr3:uid="{FEC002AC-A59B-4A35-974C-00FC77C0B2DD}" name="4. 소프트웨어" dataDxfId="35">
       <calculatedColumnFormula>공통졸업요건!$E$69</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{50F40CE2-EF17-480A-9960-90B85403EB34}" name="5. 1학년 이수 과목" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{718B788A-5670-4E96-975C-BCBC39B2FE79}" name="6. 예체능 과목" dataDxfId="35">
+    <tableColumn id="8" xr3:uid="{50F40CE2-EF17-480A-9960-90B85403EB34}" name="5. 1학년 이수 과목" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{718B788A-5670-4E96-975C-BCBC39B2FE79}" name="6. 예체능 과목" dataDxfId="33">
       <calculatedColumnFormula>공통졸업요건!$E$87</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C6ACEBA5-5E0F-44E5-AAD4-E280478D1854}" name="7. 공통필수 이수 과목_x000a_(콜로퀴움, 과기경)" dataDxfId="34">
+    <tableColumn id="10" xr3:uid="{C6ACEBA5-5E0F-44E5-AAD4-E280478D1854}" name="7. 공통필수 이수 과목_x000a_(콜로퀴움, 과기경)" dataDxfId="32">
       <calculatedColumnFormula>공통졸업요건!$J$96</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{BBF92757-923D-4A21-B9E8-411E1D809031}" name="8. 연구 과목" dataDxfId="33">
+    <tableColumn id="11" xr3:uid="{BBF92757-923D-4A21-B9E8-411E1D809031}" name="8. 연구 과목" dataDxfId="31">
       <calculatedColumnFormula>공통졸업요건!$E$105</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{867E4052-0EC2-4250-8C5F-CAF81EEDB45A}" name="9. 전체 평점 평균_x000a_(2.0 이상)" dataDxfId="32">
+    <tableColumn id="12" xr3:uid="{867E4052-0EC2-4250-8C5F-CAF81EEDB45A}" name="9. 전체 평점 평균_x000a_(2.0 이상)" dataDxfId="30">
       <calculatedColumnFormula>공통졸업요건!$E$113</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3290,28 +3290,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0F29B9D3-DF33-4A29-9615-005421DED1C2}" name="표10" displayName="표10" ref="B16:I23" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0F29B9D3-DF33-4A29-9615-005421DED1C2}" name="표10" displayName="표10" ref="B16:I23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C695C0D8-0A73-472C-92A6-C868651E2EDF}" name="학번" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00484B2A-14BC-41EC-A7BC-C01DCC1B531E}" name="전기전자컴퓨터전공" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{C695C0D8-0A73-472C-92A6-C868651E2EDF}" name="학번" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00484B2A-14BC-41EC-A7BC-C01DCC1B531E}" name="전기전자컴퓨터전공" dataDxfId="26">
       <calculatedColumnFormula>전공별졸업요건!$J$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{10BB43A4-B12B-479D-B120-517CF41C7BD9}" name="신소재공학전공" dataDxfId="27">
+    <tableColumn id="3" xr3:uid="{10BB43A4-B12B-479D-B120-517CF41C7BD9}" name="신소재공학전공" dataDxfId="25">
       <calculatedColumnFormula>전공별졸업요건!$J$15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{28074B42-7152-41BC-9264-B6EAFC38D221}" name="기계공학전공" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{28074B42-7152-41BC-9264-B6EAFC38D221}" name="기계공학전공" dataDxfId="24">
       <calculatedColumnFormula>전공별졸업요건!$O$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16243DDD-D69D-4D6E-91FC-064AC3CB848C}" name="지구환경공학전공" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{16243DDD-D69D-4D6E-91FC-064AC3CB848C}" name="지구환경공학전공" dataDxfId="23">
       <calculatedColumnFormula>전공별졸업요건!$J$43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{73A87B5F-F8AC-42BD-9781-DBEA0B0477A2}" name="생명과학전공" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{73A87B5F-F8AC-42BD-9781-DBEA0B0477A2}" name="생명과학전공" dataDxfId="22">
       <calculatedColumnFormula>전공별졸업요건!$J$57</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C11AEFB5-1534-4535-8EF4-AEE5392044C4}" name="물리전공" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{C11AEFB5-1534-4535-8EF4-AEE5392044C4}" name="물리전공" dataDxfId="21">
       <calculatedColumnFormula>전공별졸업요건!$J$72</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8A3BA68C-9228-46C0-A61C-34C615FABFD7}" name="화학전공" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{8A3BA68C-9228-46C0-A61C-34C615FABFD7}" name="화학전공" dataDxfId="20">
       <calculatedColumnFormula>전공별졸업요건!$J$88</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3320,29 +3320,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F3309007-0B5C-45F4-AFA4-DAB8189191EA}" name="표11" displayName="표11" ref="B26:I33" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F3309007-0B5C-45F4-AFA4-DAB8189191EA}" name="표11" displayName="표11" ref="B26:I33" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B26:I33" xr:uid="{F3309007-0B5C-45F4-AFA4-DAB8189191EA}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{136137DF-EC75-41E5-8689-E0F6566B403B}" name="학번" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{DA3F6E4F-D6C4-437F-A248-F5E875652F8F}" name="전기전자컴퓨터전공" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{136137DF-EC75-41E5-8689-E0F6566B403B}" name="학번" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{DA3F6E4F-D6C4-437F-A248-F5E875652F8F}" name="전기전자컴퓨터전공" dataDxfId="16">
       <calculatedColumnFormula>전공별졸업요건!$J$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{38944F1E-ED20-410D-9B9B-FBBE50EF9A6E}" name="신소재공학전공" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{38944F1E-ED20-410D-9B9B-FBBE50EF9A6E}" name="신소재공학전공" dataDxfId="15">
       <calculatedColumnFormula>전공별졸업요건!$J$24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{ADE536A0-DCD8-48A9-B95A-D867BAD63B36}" name="기계공학전공" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{ADE536A0-DCD8-48A9-B95A-D867BAD63B36}" name="기계공학전공" dataDxfId="14">
       <calculatedColumnFormula>전공별졸업요건!$O$38</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CF626C8D-292A-4906-B0F8-ADACA6D80552}" name="지구환경공학전공" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{CF626C8D-292A-4906-B0F8-ADACA6D80552}" name="지구환경공학전공" dataDxfId="13">
       <calculatedColumnFormula>전공별졸업요건!$J$51</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA40B1FF-485C-4545-8EDD-FC90DD93865F}" name="생명과학전공" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{FA40B1FF-485C-4545-8EDD-FC90DD93865F}" name="생명과학전공" dataDxfId="12">
       <calculatedColumnFormula>전공별졸업요건!$J$67</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8D6C685B-7B30-45CC-B31A-B085BF889301}" name="물리전공" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{8D6C685B-7B30-45CC-B31A-B085BF889301}" name="물리전공" dataDxfId="11">
       <calculatedColumnFormula>전공별졸업요건!$J$83</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B0CEAA05-54E1-4784-8C72-3AAC0652942F}" name="화학전공" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{B0CEAA05-54E1-4784-8C72-3AAC0652942F}" name="화학전공" dataDxfId="10">
       <calculatedColumnFormula>전공별졸업요건!$J$98</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3351,17 +3351,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AAC890CC-99C8-4FE0-BAE4-AB674D9EFD59}" name="표12" displayName="표12" ref="B35:I44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AAC890CC-99C8-4FE0-BAE4-AB674D9EFD59}" name="표12" displayName="표12" ref="B35:I44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B35:I44" xr:uid="{AAC890CC-99C8-4FE0-BAE4-AB674D9EFD59}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C855F198-20E5-4E97-B8BD-897E1CE69233}" name="학점이수현황" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C5963932-1D19-4A56-8F80-1DB704F93119}" name="전기전자컴퓨터전공" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{65969E11-B57E-42AA-BFB3-0197A3DDF4AB}" name="신소재공학전공" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2C826FBD-2C22-4778-8FD6-E79B019638C0}" name="기계공학전공" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B0A9E799-B286-4584-8B53-E249CC18C8DE}" name="지구환경공학전공" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{DA931662-5B60-45E2-9CA8-03D1A50CC1B8}" name="생명과학전공" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1ED42D7D-3A69-4D6E-A06F-32EBC666B26E}" name="물리전공" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{474E753E-0887-4FA3-8C04-19D5E74C4B33}" name="화학전공" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C855F198-20E5-4E97-B8BD-897E1CE69233}" name="학점이수현황" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C5963932-1D19-4A56-8F80-1DB704F93119}" name="전기전자컴퓨터전공" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{65969E11-B57E-42AA-BFB3-0197A3DDF4AB}" name="신소재공학전공" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2C826FBD-2C22-4778-8FD6-E79B019638C0}" name="기계공학전공" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B0A9E799-B286-4584-8B53-E249CC18C8DE}" name="지구환경공학전공" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DA931662-5B60-45E2-9CA8-03D1A50CC1B8}" name="생명과학전공" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{1ED42D7D-3A69-4D6E-A06F-32EBC666B26E}" name="물리전공" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{474E753E-0887-4FA3-8C04-19D5E74C4B33}" name="화학전공" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3635,7 +3635,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.69921875" defaultRowHeight="19.95" customHeight="1"/>
@@ -3669,7 +3669,7 @@
       <c r="K2" s="138"/>
     </row>
     <row r="3" spans="2:13" s="108" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B3" s="134">
+      <c r="B3" s="173">
         <f>IF(INT(수강과목요약!$C$2/10000)-2000&lt;15,15,INT(수강과목요약!$C$2/10000)-2000)</f>
         <v>15</v>
       </c>
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="19.95" customHeight="1">
-      <c r="B7" s="173">
+      <c r="B7" s="135">
         <v>15</v>
       </c>
       <c r="C7" s="111" t="str">
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="19.95" customHeight="1">
-      <c r="B8" s="173">
+      <c r="B8" s="135">
         <v>16</v>
       </c>
       <c r="C8" s="111" t="str">
@@ -3822,7 +3822,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="19.95" customHeight="1">
-      <c r="B9" s="173">
+      <c r="B9" s="135">
         <v>17</v>
       </c>
       <c r="C9" s="111" t="str">
@@ -3868,7 +3868,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="19.95" customHeight="1">
-      <c r="B10" s="173">
+      <c r="B10" s="135">
         <v>18</v>
       </c>
       <c r="C10" s="111" t="str">
@@ -3917,7 +3917,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.95" customHeight="1">
-      <c r="B11" s="173">
+      <c r="B11" s="135">
         <v>19</v>
       </c>
       <c r="C11" s="111" t="str">
@@ -3966,7 +3966,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="19.95" customHeight="1">
-      <c r="B12" s="173">
+      <c r="B12" s="135">
         <v>20</v>
       </c>
       <c r="C12" s="111" t="str">
@@ -4015,7 +4015,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="19.95" customHeight="1">
-      <c r="B13" s="173">
+      <c r="B13" s="135">
         <v>21</v>
       </c>
       <c r="C13" s="111" t="str">
@@ -4118,7 +4118,7 @@
       <c r="J16" s="108"/>
     </row>
     <row r="17" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B17" s="173">
+      <c r="B17" s="135">
         <v>15</v>
       </c>
       <c r="C17" s="113" t="str">
@@ -4151,7 +4151,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B18" s="173">
+      <c r="B18" s="135">
         <v>16</v>
       </c>
       <c r="C18" s="113" t="str">
@@ -4184,7 +4184,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B19" s="173">
+      <c r="B19" s="135">
         <v>17</v>
       </c>
       <c r="C19" s="113" t="str">
@@ -4217,7 +4217,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" s="108" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B20" s="173">
+      <c r="B20" s="135">
         <v>18</v>
       </c>
       <c r="C20" s="113" t="str">
@@ -4251,7 +4251,7 @@
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B21" s="173">
+      <c r="B21" s="135">
         <v>19</v>
       </c>
       <c r="C21" s="113" t="str">
@@ -4393,7 +4393,7 @@
       <c r="J26" s="108"/>
     </row>
     <row r="27" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B27" s="173">
+      <c r="B27" s="135">
         <v>15</v>
       </c>
       <c r="C27" s="104">
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B28" s="173">
+      <c r="B28" s="135">
         <v>16</v>
       </c>
       <c r="C28" s="104">
@@ -4459,7 +4459,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B29" s="173">
+      <c r="B29" s="135">
         <v>17</v>
       </c>
       <c r="C29" s="104">
@@ -4492,7 +4492,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" s="108" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B30" s="173">
+      <c r="B30" s="135">
         <v>18</v>
       </c>
       <c r="C30" s="104">
@@ -4526,7 +4526,7 @@
       <c r="J30" s="102"/>
     </row>
     <row r="31" spans="2:22" ht="19.95" customHeight="1">
-      <c r="B31" s="173">
+      <c r="B31" s="135">
         <v>19</v>
       </c>
       <c r="C31" s="104">
@@ -4653,7 +4653,7 @@
       <c r="K35" s="105"/>
     </row>
     <row r="36" spans="2:11" ht="19.95" customHeight="1">
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="134" t="s">
         <v>274</v>
       </c>
       <c r="C36" s="107">
@@ -4686,7 +4686,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="19.95" customHeight="1">
-      <c r="B37" s="135" t="s">
+      <c r="B37" s="134" t="s">
         <v>272</v>
       </c>
       <c r="C37" s="104">
@@ -4721,7 +4721,7 @@
       <c r="K37" s="106"/>
     </row>
     <row r="38" spans="2:11" ht="19.95" customHeight="1">
-      <c r="B38" s="135" t="s">
+      <c r="B38" s="134" t="s">
         <v>291</v>
       </c>
       <c r="C38" s="104">
@@ -4756,7 +4756,7 @@
       <c r="K38" s="106"/>
     </row>
     <row r="39" spans="2:11" ht="19.95" customHeight="1">
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="134" t="s">
         <v>273</v>
       </c>
       <c r="C39" s="104">
@@ -4791,7 +4791,7 @@
       <c r="K39" s="106"/>
     </row>
     <row r="40" spans="2:11" ht="19.95" customHeight="1">
-      <c r="B40" s="135" t="s">
+      <c r="B40" s="134" t="s">
         <v>290</v>
       </c>
       <c r="C40" s="104">
@@ -5034,19 +5034,19 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.8" customHeight="1"/>
     <row r="2" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B2" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
+      <c r="B2" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
     </row>
     <row r="3" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
@@ -5191,19 +5191,19 @@
     </row>
     <row r="14" spans="2:9" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="15" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
     </row>
     <row r="16" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="5" t="s">
         <v>2</v>
       </c>
@@ -5390,19 +5390,19 @@
     </row>
     <row r="30" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="31" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B31" s="162" t="s">
+      <c r="B31" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
     </row>
     <row r="32" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
       <c r="E32" s="5" t="s">
         <v>2</v>
       </c>
@@ -5507,19 +5507,19 @@
     </row>
     <row r="40" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="41" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B41" s="162" t="s">
+      <c r="B41" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
-      <c r="E41" s="162"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
     </row>
     <row r="42" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="150"/>
       <c r="E42" s="5" t="s">
         <v>2</v>
       </c>
@@ -5575,7 +5575,7 @@
       <c r="C46" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="164" t="s">
+      <c r="D46" s="151" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="47" t="str">
@@ -5590,7 +5590,7 @@
       <c r="C47" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="165"/>
+      <c r="D47" s="152"/>
       <c r="E47" s="70" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*학술적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5603,7 +5603,7 @@
       <c r="C48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="166"/>
+      <c r="D48" s="153"/>
       <c r="E48" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*창의적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5616,7 +5616,7 @@
       <c r="C49" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="167" t="s">
+      <c r="D49" s="154" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="19" t="str">
@@ -5631,7 +5631,7 @@
       <c r="C50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="165"/>
+      <c r="D50" s="152"/>
       <c r="E50" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*고전 읽기와 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5644,7 +5644,7 @@
       <c r="C51" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="165"/>
+      <c r="D51" s="152"/>
       <c r="E51" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*비평적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5657,7 +5657,7 @@
       <c r="C52" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="168"/>
+      <c r="D52" s="155"/>
       <c r="E52" s="23" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*디지털 스토리텔링",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5665,19 +5665,19 @@
     </row>
     <row r="53" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="54" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B54" s="169" t="s">
+      <c r="B54" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="158"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="170"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="157"/>
     </row>
     <row r="55" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B55" s="157" t="s">
+      <c r="B55" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="158"/>
-      <c r="D55" s="159"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="42" t="s">
         <v>75</v>
       </c>
@@ -5810,12 +5810,12 @@
     </row>
     <row r="65" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="66" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B66" s="155" t="s">
+      <c r="B66" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="155"/>
-      <c r="D66" s="155"/>
-      <c r="E66" s="155"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
       <c r="H66" s="49"/>
@@ -5823,11 +5823,11 @@
       <c r="J66" s="49"/>
     </row>
     <row r="67" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B67" s="156" t="s">
+      <c r="B67" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="156"/>
-      <c r="D67" s="156"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
       <c r="E67" s="50" t="s">
         <v>96</v>
       </c>
@@ -5963,35 +5963,35 @@
       <c r="J74" s="49"/>
     </row>
     <row r="75" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B75" s="142" t="s">
+      <c r="B75" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="160"/>
+      <c r="E75" s="160"/>
       <c r="F75" s="49"/>
-      <c r="G75" s="142" t="s">
+      <c r="G75" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="142"/>
+      <c r="H75" s="160"/>
+      <c r="I75" s="160"/>
+      <c r="J75" s="160"/>
     </row>
     <row r="76" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B76" s="146" t="s">
+      <c r="B76" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="161"/>
       <c r="E76" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F76" s="49"/>
-      <c r="G76" s="146" t="s">
+      <c r="G76" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H76" s="146"/>
-      <c r="I76" s="146"/>
+      <c r="H76" s="161"/>
+      <c r="I76" s="161"/>
       <c r="J76" s="50" t="s">
         <v>106</v>
       </c>
@@ -6153,35 +6153,35 @@
       <c r="J83" s="49"/>
     </row>
     <row r="84" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B84" s="153" t="s">
+      <c r="B84" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="153"/>
-      <c r="D84" s="153"/>
-      <c r="E84" s="153"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
       <c r="F84" s="49"/>
-      <c r="G84" s="153" t="s">
+      <c r="G84" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="H84" s="153"/>
-      <c r="I84" s="153"/>
-      <c r="J84" s="153"/>
+      <c r="H84" s="158"/>
+      <c r="I84" s="158"/>
+      <c r="J84" s="158"/>
     </row>
     <row r="85" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B85" s="154" t="s">
+      <c r="B85" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
+      <c r="C85" s="159"/>
+      <c r="D85" s="159"/>
       <c r="E85" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F85" s="49"/>
-      <c r="G85" s="154" t="s">
+      <c r="G85" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="H85" s="154"/>
-      <c r="I85" s="154"/>
+      <c r="H85" s="159"/>
+      <c r="I85" s="159"/>
       <c r="J85" s="50" t="s">
         <v>115</v>
       </c>
@@ -6352,33 +6352,33 @@
     </row>
     <row r="92" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="93" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B93" s="150" t="s">
+      <c r="B93" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="C93" s="150"/>
-      <c r="D93" s="150"/>
-      <c r="E93" s="150"/>
-      <c r="G93" s="150" t="s">
+      <c r="C93" s="168"/>
+      <c r="D93" s="168"/>
+      <c r="E93" s="168"/>
+      <c r="G93" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="H93" s="150"/>
-      <c r="I93" s="150"/>
-      <c r="J93" s="150"/>
+      <c r="H93" s="168"/>
+      <c r="I93" s="168"/>
+      <c r="J93" s="168"/>
     </row>
     <row r="94" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B94" s="149" t="s">
+      <c r="B94" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="149"/>
-      <c r="D94" s="149"/>
+      <c r="C94" s="167"/>
+      <c r="D94" s="167"/>
       <c r="E94" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G94" s="149" t="s">
+      <c r="G94" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="H94" s="149"/>
-      <c r="I94" s="149"/>
+      <c r="H94" s="167"/>
+      <c r="I94" s="167"/>
       <c r="J94" s="64" t="s">
         <v>141</v>
       </c>
@@ -6519,19 +6519,19 @@
     </row>
     <row r="101" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="102" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B102" s="151" t="s">
+      <c r="B102" s="169" t="s">
         <v>255</v>
       </c>
-      <c r="C102" s="151"/>
-      <c r="D102" s="151"/>
-      <c r="E102" s="151"/>
+      <c r="C102" s="169"/>
+      <c r="D102" s="169"/>
+      <c r="E102" s="169"/>
     </row>
     <row r="103" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B103" s="152" t="s">
+      <c r="B103" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="152"/>
-      <c r="D103" s="152"/>
+      <c r="C103" s="170"/>
+      <c r="D103" s="170"/>
       <c r="E103" s="93" t="s">
         <v>2</v>
       </c>
@@ -6608,19 +6608,19 @@
     </row>
     <row r="109" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="110" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B110" s="142" t="s">
+      <c r="B110" s="160" t="s">
         <v>263</v>
       </c>
-      <c r="C110" s="143"/>
-      <c r="D110" s="144"/>
-      <c r="E110" s="145"/>
+      <c r="C110" s="162"/>
+      <c r="D110" s="163"/>
+      <c r="E110" s="164"/>
     </row>
     <row r="111" spans="2:10">
-      <c r="B111" s="146" t="s">
+      <c r="B111" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="C111" s="147"/>
-      <c r="D111" s="148"/>
+      <c r="C111" s="165"/>
+      <c r="D111" s="166"/>
       <c r="E111" s="98" t="s">
         <v>2</v>
       </c>
@@ -6685,6 +6685,22 @@
     <row r="116" spans="2:5" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="G76:I76"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B55:D55"/>
@@ -6699,22 +6715,6 @@
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B103:D103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6750,33 +6750,33 @@
   <sheetData>
     <row r="1" spans="2:10" ht="7.8" customHeight="1"/>
     <row r="2" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="G2" s="155" t="s">
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="G2" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="156" t="s">
+      <c r="G3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="84" t="s">
         <v>96</v>
       </c>
@@ -6969,33 +6969,33 @@
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="12" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="G12" s="155" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="G12" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
       <c r="E13" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="156" t="s">
+      <c r="G13" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="84" t="s">
         <v>96</v>
       </c>
@@ -7262,47 +7262,47 @@
     </row>
     <row r="25" spans="2:15" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="26" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="G26" s="155" t="s">
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="G26" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="L26" s="155" t="s">
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="L26" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
     </row>
     <row r="27" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
       <c r="E27" s="84">
         <v>15</v>
       </c>
-      <c r="G27" s="156" t="s">
+      <c r="G27" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
       <c r="J27" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="L27" s="156" t="s">
+      <c r="L27" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
       <c r="O27" s="84" t="s">
         <v>187</v>
       </c>
@@ -7657,33 +7657,33 @@
     </row>
     <row r="39" spans="2:15" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="40" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="G40" s="155" t="s">
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="G40" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
     </row>
     <row r="41" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B41" s="156" t="s">
+      <c r="B41" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
       <c r="E41" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G41" s="156" t="s">
+      <c r="G41" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
       <c r="J41" s="84" t="s">
         <v>187</v>
       </c>
@@ -7963,33 +7963,33 @@
     </row>
     <row r="53" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="54" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B54" s="155" t="s">
+      <c r="B54" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="C54" s="155"/>
-      <c r="D54" s="155"/>
-      <c r="E54" s="155"/>
-      <c r="G54" s="155" t="s">
+      <c r="C54" s="142"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="142"/>
+      <c r="G54" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="H54" s="155"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="155"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="142"/>
+      <c r="J54" s="142"/>
     </row>
     <row r="55" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="143"/>
       <c r="E55" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="156" t="s">
+      <c r="G55" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="143"/>
       <c r="J55" s="84" t="s">
         <v>96</v>
       </c>
@@ -8279,33 +8279,33 @@
     </row>
     <row r="68" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="69" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B69" s="155" t="s">
+      <c r="B69" s="142" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="155"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="G69" s="155" t="s">
+      <c r="C69" s="142"/>
+      <c r="D69" s="142"/>
+      <c r="E69" s="142"/>
+      <c r="G69" s="142" t="s">
         <v>219</v>
       </c>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="155"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="142"/>
+      <c r="J69" s="142"/>
     </row>
     <row r="70" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B70" s="156" t="s">
+      <c r="B70" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="156"/>
-      <c r="D70" s="156"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="143"/>
       <c r="E70" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G70" s="156" t="s">
+      <c r="G70" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H70" s="156"/>
-      <c r="I70" s="156"/>
+      <c r="H70" s="143"/>
+      <c r="I70" s="143"/>
       <c r="J70" s="84" t="s">
         <v>187</v>
       </c>
@@ -8622,33 +8622,33 @@
     </row>
     <row r="84" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="85" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B85" s="155" t="s">
+      <c r="B85" s="142" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="155"/>
-      <c r="D85" s="155"/>
-      <c r="E85" s="155"/>
-      <c r="G85" s="155" t="s">
+      <c r="C85" s="142"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="142"/>
+      <c r="G85" s="142" t="s">
         <v>237</v>
       </c>
-      <c r="H85" s="155"/>
-      <c r="I85" s="155"/>
-      <c r="J85" s="155"/>
+      <c r="H85" s="142"/>
+      <c r="I85" s="142"/>
+      <c r="J85" s="142"/>
     </row>
     <row r="86" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B86" s="156" t="s">
+      <c r="B86" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="156"/>
-      <c r="D86" s="156"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
       <c r="E86" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G86" s="156" t="s">
+      <c r="G86" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="H86" s="156"/>
-      <c r="I86" s="156"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
       <c r="J86" s="84" t="s">
         <v>187</v>
       </c>
@@ -8942,29 +8942,6 @@
     <row r="99" spans="7:10" ht="19.95" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:N27"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:I13"/>
@@ -8973,6 +8950,29 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:I86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\graduation_requirement_computation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FBB46C-975A-41F1-9CD1-3A6CF4C889BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87682594-B290-4171-8DE7-1B879561BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합데이터" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="303">
   <si>
     <t>1-1. 기초과학 분야 - 수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1579,6 +1579,20 @@
     <t>일반생물학실험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>최대 이수 학점 도달 시 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무 이수 학점 도달 시 스타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통졸업요건(상단)과
+전공졸업요건(좌단)을
+모두 만족해야 합니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1587,7 +1601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0&quot;학번&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1660,6 +1674,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1829,7 +1857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2395,11 +2423,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2794,6 +2848,9 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2812,6 +2869,12 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2905,8 +2968,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3635,7 +3701,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.69921875" defaultRowHeight="19.95" customHeight="1"/>
@@ -3660,25 +3726,25 @@
       <c r="B2" s="127" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="137" t="s">
         <v>292</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:13" s="108" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B3" s="173">
+      <c r="B3" s="136">
         <f>IF(INT(수강과목요약!$C$2/10000)-2000&lt;15,15,INT(수강과목요약!$C$2/10000)-2000)</f>
         <v>15</v>
       </c>
       <c r="C3" s="130"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="141"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="142"/>
     </row>
     <row r="4" spans="2:13" ht="19.95" customHeight="1">
       <c r="K4" s="107"/>
@@ -4063,7 +4129,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="19.95" customHeight="1">
+    <row r="14" spans="2:13" ht="19.95" customHeight="1" thickBot="1">
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
       <c r="E14" s="107"/>
@@ -4086,11 +4152,13 @@
       <c r="G15" s="107"/>
       <c r="H15" s="107"/>
       <c r="I15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="K15" s="176" t="s">
+        <v>302</v>
+      </c>
       <c r="L15" s="107"/>
       <c r="M15" s="107"/>
     </row>
-    <row r="16" spans="2:13" ht="40.049999999999997" customHeight="1">
+    <row r="16" spans="2:13" ht="40.049999999999997" customHeight="1" thickBot="1">
       <c r="B16" s="131" t="s">
         <v>295</v>
       </c>
@@ -4116,6 +4184,7 @@
         <v>289</v>
       </c>
       <c r="J16" s="108"/>
+      <c r="K16" s="177"/>
     </row>
     <row r="17" spans="2:22" ht="19.95" customHeight="1">
       <c r="B17" s="135">
@@ -4364,6 +4433,14 @@
       <c r="B25" s="129" t="s">
         <v>297</v>
       </c>
+      <c r="C25" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="143"/>
+      <c r="E25" s="144" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="144"/>
     </row>
     <row r="26" spans="2:22" ht="40.049999999999997" customHeight="1">
       <c r="B26" s="131" t="s">
@@ -4964,8 +5041,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="G2:K3"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K15:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C7:M13">
@@ -5034,19 +5114,19 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.8" customHeight="1"/>
     <row r="2" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B2" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
+      <c r="B2" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
     </row>
     <row r="3" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
@@ -5191,19 +5271,19 @@
     </row>
     <row r="14" spans="2:9" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="15" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
     </row>
     <row r="16" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
       <c r="E16" s="5" t="s">
         <v>2</v>
       </c>
@@ -5390,19 +5470,19 @@
     </row>
     <row r="30" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="31" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
     </row>
     <row r="32" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
       <c r="E32" s="5" t="s">
         <v>2</v>
       </c>
@@ -5507,19 +5587,19 @@
     </row>
     <row r="40" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="41" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B41" s="149" t="s">
+      <c r="B41" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
     </row>
     <row r="42" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B42" s="150" t="s">
+      <c r="B42" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
       <c r="E42" s="5" t="s">
         <v>2</v>
       </c>
@@ -5575,7 +5655,7 @@
       <c r="C46" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="151" t="s">
+      <c r="D46" s="154" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="47" t="str">
@@ -5590,7 +5670,7 @@
       <c r="C47" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="152"/>
+      <c r="D47" s="155"/>
       <c r="E47" s="70" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*학술적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5603,7 +5683,7 @@
       <c r="C48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="153"/>
+      <c r="D48" s="156"/>
       <c r="E48" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*창의적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5616,7 +5696,7 @@
       <c r="C49" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="154" t="s">
+      <c r="D49" s="157" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="19" t="str">
@@ -5631,7 +5711,7 @@
       <c r="C50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="152"/>
+      <c r="D50" s="155"/>
       <c r="E50" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*고전 읽기와 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5644,7 +5724,7 @@
       <c r="C51" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="152"/>
+      <c r="D51" s="155"/>
       <c r="E51" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*비평적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5657,7 +5737,7 @@
       <c r="C52" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="155"/>
+      <c r="D52" s="158"/>
       <c r="E52" s="23" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*디지털 스토리텔링",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5665,19 +5745,19 @@
     </row>
     <row r="53" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="54" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B54" s="156" t="s">
+      <c r="B54" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="145"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="157"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="160"/>
     </row>
     <row r="55" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B55" s="144" t="s">
+      <c r="B55" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="146"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="149"/>
       <c r="E55" s="42" t="s">
         <v>75</v>
       </c>
@@ -5810,12 +5890,12 @@
     </row>
     <row r="65" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="66" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B66" s="142" t="s">
+      <c r="B66" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="142"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="145"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
       <c r="H66" s="49"/>
@@ -5823,11 +5903,11 @@
       <c r="J66" s="49"/>
     </row>
     <row r="67" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B67" s="143" t="s">
+      <c r="B67" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
+      <c r="C67" s="146"/>
+      <c r="D67" s="146"/>
       <c r="E67" s="50" t="s">
         <v>96</v>
       </c>
@@ -5963,35 +6043,35 @@
       <c r="J74" s="49"/>
     </row>
     <row r="75" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B75" s="160" t="s">
+      <c r="B75" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="160"/>
-      <c r="D75" s="160"/>
-      <c r="E75" s="160"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
       <c r="F75" s="49"/>
-      <c r="G75" s="160" t="s">
+      <c r="G75" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="H75" s="160"/>
-      <c r="I75" s="160"/>
-      <c r="J75" s="160"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="163"/>
     </row>
     <row r="76" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B76" s="161" t="s">
+      <c r="B76" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="161"/>
-      <c r="D76" s="161"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="164"/>
       <c r="E76" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F76" s="49"/>
-      <c r="G76" s="161" t="s">
+      <c r="G76" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="H76" s="161"/>
-      <c r="I76" s="161"/>
+      <c r="H76" s="164"/>
+      <c r="I76" s="164"/>
       <c r="J76" s="50" t="s">
         <v>106</v>
       </c>
@@ -6153,35 +6233,35 @@
       <c r="J83" s="49"/>
     </row>
     <row r="84" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B84" s="158" t="s">
+      <c r="B84" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="158"/>
-      <c r="D84" s="158"/>
-      <c r="E84" s="158"/>
+      <c r="C84" s="161"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="161"/>
       <c r="F84" s="49"/>
-      <c r="G84" s="158" t="s">
+      <c r="G84" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="H84" s="158"/>
-      <c r="I84" s="158"/>
-      <c r="J84" s="158"/>
+      <c r="H84" s="161"/>
+      <c r="I84" s="161"/>
+      <c r="J84" s="161"/>
     </row>
     <row r="85" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B85" s="159" t="s">
+      <c r="B85" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="159"/>
-      <c r="D85" s="159"/>
+      <c r="C85" s="162"/>
+      <c r="D85" s="162"/>
       <c r="E85" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F85" s="49"/>
-      <c r="G85" s="159" t="s">
+      <c r="G85" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="H85" s="159"/>
-      <c r="I85" s="159"/>
+      <c r="H85" s="162"/>
+      <c r="I85" s="162"/>
       <c r="J85" s="50" t="s">
         <v>115</v>
       </c>
@@ -6352,33 +6432,33 @@
     </row>
     <row r="92" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="93" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B93" s="168" t="s">
+      <c r="B93" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="C93" s="168"/>
-      <c r="D93" s="168"/>
-      <c r="E93" s="168"/>
-      <c r="G93" s="168" t="s">
+      <c r="C93" s="171"/>
+      <c r="D93" s="171"/>
+      <c r="E93" s="171"/>
+      <c r="G93" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="H93" s="168"/>
-      <c r="I93" s="168"/>
-      <c r="J93" s="168"/>
+      <c r="H93" s="171"/>
+      <c r="I93" s="171"/>
+      <c r="J93" s="171"/>
     </row>
     <row r="94" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B94" s="167" t="s">
+      <c r="B94" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="167"/>
-      <c r="D94" s="167"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="170"/>
       <c r="E94" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G94" s="167" t="s">
+      <c r="G94" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="H94" s="167"/>
-      <c r="I94" s="167"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="170"/>
       <c r="J94" s="64" t="s">
         <v>141</v>
       </c>
@@ -6519,19 +6599,19 @@
     </row>
     <row r="101" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="102" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B102" s="169" t="s">
+      <c r="B102" s="172" t="s">
         <v>255</v>
       </c>
-      <c r="C102" s="169"/>
-      <c r="D102" s="169"/>
-      <c r="E102" s="169"/>
+      <c r="C102" s="172"/>
+      <c r="D102" s="172"/>
+      <c r="E102" s="172"/>
     </row>
     <row r="103" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B103" s="170" t="s">
+      <c r="B103" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="170"/>
-      <c r="D103" s="170"/>
+      <c r="C103" s="173"/>
+      <c r="D103" s="173"/>
       <c r="E103" s="93" t="s">
         <v>2</v>
       </c>
@@ -6608,19 +6688,19 @@
     </row>
     <row r="109" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="110" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B110" s="160" t="s">
+      <c r="B110" s="163" t="s">
         <v>263</v>
       </c>
-      <c r="C110" s="162"/>
-      <c r="D110" s="163"/>
-      <c r="E110" s="164"/>
+      <c r="C110" s="165"/>
+      <c r="D110" s="166"/>
+      <c r="E110" s="167"/>
     </row>
     <row r="111" spans="2:10">
-      <c r="B111" s="161" t="s">
+      <c r="B111" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="C111" s="165"/>
-      <c r="D111" s="166"/>
+      <c r="C111" s="168"/>
+      <c r="D111" s="169"/>
       <c r="E111" s="98" t="s">
         <v>2</v>
       </c>
@@ -6750,33 +6830,33 @@
   <sheetData>
     <row r="1" spans="2:10" ht="7.8" customHeight="1"/>
     <row r="2" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="G2" s="142" t="s">
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="G2" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
     </row>
     <row r="3" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
       <c r="E3" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
       <c r="J3" s="84" t="s">
         <v>96</v>
       </c>
@@ -6969,33 +7049,33 @@
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="12" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="G12" s="142" t="s">
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="G12" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
       <c r="E13" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="143" t="s">
+      <c r="G13" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
       <c r="J13" s="84" t="s">
         <v>96</v>
       </c>
@@ -7262,47 +7342,47 @@
     </row>
     <row r="25" spans="2:15" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="26" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="G26" s="142" t="s">
+      <c r="C26" s="145"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="G26" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="L26" s="142" t="s">
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="L26" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
     </row>
     <row r="27" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="84">
         <v>15</v>
       </c>
-      <c r="G27" s="143" t="s">
+      <c r="G27" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
       <c r="J27" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="L27" s="143" t="s">
+      <c r="L27" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
       <c r="O27" s="84" t="s">
         <v>187</v>
       </c>
@@ -7657,33 +7737,33 @@
     </row>
     <row r="39" spans="2:15" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="40" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B40" s="142" t="s">
+      <c r="B40" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="G40" s="142" t="s">
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="G40" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
     </row>
     <row r="41" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
       <c r="E41" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G41" s="143" t="s">
+      <c r="G41" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
       <c r="J41" s="84" t="s">
         <v>187</v>
       </c>
@@ -7801,7 +7881,7 @@
       <c r="C46" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="171" t="s">
+      <c r="D46" s="174" t="s">
         <v>253</v>
       </c>
       <c r="E46" s="70" t="str">
@@ -7827,7 +7907,7 @@
       <c r="C47" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="172"/>
+      <c r="D47" s="175"/>
       <c r="E47" s="70" t="str">
         <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,OR("해양학", "지구시스템과학"),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -7963,33 +8043,33 @@
     </row>
     <row r="53" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="54" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B54" s="142" t="s">
+      <c r="B54" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="G54" s="142" t="s">
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="G54" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="H54" s="142"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="142"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
     </row>
     <row r="55" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="143" t="s">
+      <c r="G55" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
       <c r="J55" s="84" t="s">
         <v>96</v>
       </c>
@@ -8279,33 +8359,33 @@
     </row>
     <row r="68" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="69" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B69" s="142" t="s">
+      <c r="B69" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="142"/>
-      <c r="D69" s="142"/>
-      <c r="E69" s="142"/>
-      <c r="G69" s="142" t="s">
+      <c r="C69" s="145"/>
+      <c r="D69" s="145"/>
+      <c r="E69" s="145"/>
+      <c r="G69" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="H69" s="142"/>
-      <c r="I69" s="142"/>
-      <c r="J69" s="142"/>
+      <c r="H69" s="145"/>
+      <c r="I69" s="145"/>
+      <c r="J69" s="145"/>
     </row>
     <row r="70" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B70" s="143" t="s">
+      <c r="B70" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="143"/>
-      <c r="D70" s="143"/>
+      <c r="C70" s="146"/>
+      <c r="D70" s="146"/>
       <c r="E70" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G70" s="143" t="s">
+      <c r="G70" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="H70" s="143"/>
-      <c r="I70" s="143"/>
+      <c r="H70" s="146"/>
+      <c r="I70" s="146"/>
       <c r="J70" s="84" t="s">
         <v>187</v>
       </c>
@@ -8622,33 +8702,33 @@
     </row>
     <row r="84" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="85" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B85" s="142" t="s">
+      <c r="B85" s="145" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="142"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="142"/>
-      <c r="G85" s="142" t="s">
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
+      <c r="G85" s="145" t="s">
         <v>237</v>
       </c>
-      <c r="H85" s="142"/>
-      <c r="I85" s="142"/>
-      <c r="J85" s="142"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="145"/>
+      <c r="J85" s="145"/>
     </row>
     <row r="86" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B86" s="143" t="s">
+      <c r="B86" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
+      <c r="C86" s="146"/>
+      <c r="D86" s="146"/>
       <c r="E86" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G86" s="143" t="s">
+      <c r="G86" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="H86" s="143"/>
-      <c r="I86" s="143"/>
+      <c r="H86" s="146"/>
+      <c r="I86" s="146"/>
       <c r="J86" s="84" t="s">
         <v>187</v>
       </c>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\graduation_requirement_computation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87682594-B290-4171-8DE7-1B879561BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60702C77-741B-4A5A-8705-9A4A2B69D703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="600" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="종합데이터" sheetId="8" r:id="rId1"/>
@@ -1573,9 +1573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학점이수현황</t>
-  </si>
-  <si>
     <t>일반생물학실험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1592,6 +1589,11 @@
 전공졸업요건(좌단)을
 모두 만족해야 합니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점이수현황
+(130학점 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2875,6 +2877,51 @@
     <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2923,56 +2970,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3420,7 +3422,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AAC890CC-99C8-4FE0-BAE4-AB674D9EFD59}" name="표12" displayName="표12" ref="B35:I44" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B35:I44" xr:uid="{AAC890CC-99C8-4FE0-BAE4-AB674D9EFD59}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C855F198-20E5-4E97-B8BD-897E1CE69233}" name="학점이수현황" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C855F198-20E5-4E97-B8BD-897E1CE69233}" name="학점이수현황_x000a_(130학점 이상)" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{C5963932-1D19-4A56-8F80-1DB704F93119}" name="전기전자컴퓨터전공" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{65969E11-B57E-42AA-BFB3-0197A3DDF4AB}" name="신소재공학전공" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{2C826FBD-2C22-4778-8FD6-E79B019638C0}" name="기계공학전공" dataDxfId="4"/>
@@ -4152,8 +4154,8 @@
       <c r="G15" s="107"/>
       <c r="H15" s="107"/>
       <c r="I15" s="107"/>
-      <c r="K15" s="176" t="s">
-        <v>302</v>
+      <c r="K15" s="145" t="s">
+        <v>301</v>
       </c>
       <c r="L15" s="107"/>
       <c r="M15" s="107"/>
@@ -4184,7 +4186,7 @@
         <v>289</v>
       </c>
       <c r="J16" s="108"/>
-      <c r="K16" s="177"/>
+      <c r="K16" s="146"/>
     </row>
     <row r="17" spans="2:22" ht="19.95" customHeight="1">
       <c r="B17" s="135">
@@ -4434,11 +4436,11 @@
         <v>297</v>
       </c>
       <c r="C25" s="143" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D25" s="143"/>
       <c r="E25" s="144" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F25" s="144"/>
     </row>
@@ -4703,7 +4705,7 @@
     </row>
     <row r="35" spans="2:11" ht="40.049999999999997" customHeight="1">
       <c r="B35" s="133" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C35" s="102" t="s">
         <v>283</v>
@@ -5114,19 +5116,19 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.8" customHeight="1"/>
     <row r="2" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B2" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="B2" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
     </row>
     <row r="3" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
       <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
@@ -5271,19 +5273,19 @@
     </row>
     <row r="14" spans="2:9" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="15" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
     </row>
     <row r="16" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="5" t="s">
         <v>2</v>
       </c>
@@ -5432,7 +5434,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="19" t="str">
@@ -5470,19 +5472,19 @@
     </row>
     <row r="30" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="31" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
     </row>
     <row r="32" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B32" s="153" t="s">
+      <c r="B32" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
       <c r="E32" s="5" t="s">
         <v>2</v>
       </c>
@@ -5587,19 +5589,19 @@
     </row>
     <row r="40" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="41" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B41" s="152" t="s">
+      <c r="B41" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
+      <c r="C41" s="167"/>
+      <c r="D41" s="167"/>
+      <c r="E41" s="167"/>
     </row>
     <row r="42" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
       <c r="E42" s="5" t="s">
         <v>2</v>
       </c>
@@ -5655,7 +5657,7 @@
       <c r="C46" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="154" t="s">
+      <c r="D46" s="169" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="47" t="str">
@@ -5670,7 +5672,7 @@
       <c r="C47" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="155"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="70" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*학술적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5683,7 +5685,7 @@
       <c r="C48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="156"/>
+      <c r="D48" s="171"/>
       <c r="E48" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*창의적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5696,7 +5698,7 @@
       <c r="C49" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="157" t="s">
+      <c r="D49" s="172" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="19" t="str">
@@ -5711,7 +5713,7 @@
       <c r="C50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="155"/>
+      <c r="D50" s="170"/>
       <c r="E50" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*고전 읽기와 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5724,7 +5726,7 @@
       <c r="C51" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="155"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*비평적 글쓰기",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5737,7 +5739,7 @@
       <c r="C52" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="158"/>
+      <c r="D52" s="173"/>
       <c r="E52" s="23" t="str">
         <f>IF(SUMIF(전체개설과목정보!$D$6:$D$1000,"*디지털 스토리텔링",전체개설과목정보!$H$6:$H$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -5745,19 +5747,19 @@
     </row>
     <row r="53" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="54" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B54" s="159" t="s">
+      <c r="B54" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="148"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="160"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="175"/>
     </row>
     <row r="55" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B55" s="147" t="s">
+      <c r="B55" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="148"/>
-      <c r="D55" s="149"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="42" t="s">
         <v>75</v>
       </c>
@@ -5890,12 +5892,12 @@
     </row>
     <row r="65" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="66" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B66" s="145" t="s">
+      <c r="B66" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="145"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="145"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="160"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
       <c r="H66" s="49"/>
@@ -5903,11 +5905,11 @@
       <c r="J66" s="49"/>
     </row>
     <row r="67" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B67" s="146" t="s">
+      <c r="B67" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="146"/>
-      <c r="D67" s="146"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="161"/>
       <c r="E67" s="50" t="s">
         <v>96</v>
       </c>
@@ -6043,35 +6045,35 @@
       <c r="J74" s="49"/>
     </row>
     <row r="75" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B75" s="163" t="s">
+      <c r="B75" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="163"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="163"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="147"/>
       <c r="F75" s="49"/>
-      <c r="G75" s="163" t="s">
+      <c r="G75" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="H75" s="163"/>
-      <c r="I75" s="163"/>
-      <c r="J75" s="163"/>
+      <c r="H75" s="147"/>
+      <c r="I75" s="147"/>
+      <c r="J75" s="147"/>
     </row>
     <row r="76" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B76" s="164" t="s">
+      <c r="B76" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="164"/>
-      <c r="D76" s="164"/>
+      <c r="C76" s="151"/>
+      <c r="D76" s="151"/>
       <c r="E76" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F76" s="49"/>
-      <c r="G76" s="164" t="s">
+      <c r="G76" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="H76" s="164"/>
-      <c r="I76" s="164"/>
+      <c r="H76" s="151"/>
+      <c r="I76" s="151"/>
       <c r="J76" s="50" t="s">
         <v>106</v>
       </c>
@@ -6233,35 +6235,35 @@
       <c r="J83" s="49"/>
     </row>
     <row r="84" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B84" s="161" t="s">
+      <c r="B84" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="161"/>
-      <c r="D84" s="161"/>
-      <c r="E84" s="161"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
       <c r="F84" s="49"/>
-      <c r="G84" s="161" t="s">
+      <c r="G84" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="H84" s="161"/>
-      <c r="I84" s="161"/>
-      <c r="J84" s="161"/>
+      <c r="H84" s="158"/>
+      <c r="I84" s="158"/>
+      <c r="J84" s="158"/>
     </row>
     <row r="85" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B85" s="162" t="s">
+      <c r="B85" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="162"/>
-      <c r="D85" s="162"/>
+      <c r="C85" s="159"/>
+      <c r="D85" s="159"/>
       <c r="E85" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F85" s="49"/>
-      <c r="G85" s="162" t="s">
+      <c r="G85" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="H85" s="162"/>
-      <c r="I85" s="162"/>
+      <c r="H85" s="159"/>
+      <c r="I85" s="159"/>
       <c r="J85" s="50" t="s">
         <v>115</v>
       </c>
@@ -6432,33 +6434,33 @@
     </row>
     <row r="92" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="93" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B93" s="171" t="s">
+      <c r="B93" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="C93" s="171"/>
-      <c r="D93" s="171"/>
-      <c r="E93" s="171"/>
-      <c r="G93" s="171" t="s">
+      <c r="C93" s="155"/>
+      <c r="D93" s="155"/>
+      <c r="E93" s="155"/>
+      <c r="G93" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="H93" s="171"/>
-      <c r="I93" s="171"/>
-      <c r="J93" s="171"/>
+      <c r="H93" s="155"/>
+      <c r="I93" s="155"/>
+      <c r="J93" s="155"/>
     </row>
     <row r="94" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B94" s="170" t="s">
+      <c r="B94" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="170"/>
-      <c r="D94" s="170"/>
+      <c r="C94" s="154"/>
+      <c r="D94" s="154"/>
       <c r="E94" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G94" s="170" t="s">
+      <c r="G94" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="H94" s="170"/>
-      <c r="I94" s="170"/>
+      <c r="H94" s="154"/>
+      <c r="I94" s="154"/>
       <c r="J94" s="64" t="s">
         <v>141</v>
       </c>
@@ -6599,19 +6601,19 @@
     </row>
     <row r="101" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="102" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B102" s="172" t="s">
+      <c r="B102" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="C102" s="172"/>
-      <c r="D102" s="172"/>
-      <c r="E102" s="172"/>
+      <c r="C102" s="156"/>
+      <c r="D102" s="156"/>
+      <c r="E102" s="156"/>
     </row>
     <row r="103" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B103" s="173" t="s">
+      <c r="B103" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="173"/>
-      <c r="D103" s="173"/>
+      <c r="C103" s="157"/>
+      <c r="D103" s="157"/>
       <c r="E103" s="93" t="s">
         <v>2</v>
       </c>
@@ -6688,19 +6690,19 @@
     </row>
     <row r="109" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="110" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B110" s="163" t="s">
+      <c r="B110" s="147" t="s">
         <v>263</v>
       </c>
-      <c r="C110" s="165"/>
-      <c r="D110" s="166"/>
-      <c r="E110" s="167"/>
+      <c r="C110" s="148"/>
+      <c r="D110" s="149"/>
+      <c r="E110" s="150"/>
     </row>
     <row r="111" spans="2:10">
-      <c r="B111" s="164" t="s">
+      <c r="B111" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="C111" s="168"/>
-      <c r="D111" s="169"/>
+      <c r="C111" s="152"/>
+      <c r="D111" s="153"/>
       <c r="E111" s="98" t="s">
         <v>2</v>
       </c>
@@ -6765,22 +6767,6 @@
     <row r="116" spans="2:5" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G76:I76"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B55:D55"/>
@@ -6795,6 +6781,22 @@
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:D103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6830,33 +6832,33 @@
   <sheetData>
     <row r="1" spans="2:10" ht="7.8" customHeight="1"/>
     <row r="2" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="G2" s="145" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="G2" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
     </row>
     <row r="3" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
       <c r="E3" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
       <c r="J3" s="84" t="s">
         <v>96</v>
       </c>
@@ -7049,33 +7051,33 @@
     </row>
     <row r="11" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="12" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="G12" s="145" t="s">
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="G12" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="146" t="s">
+      <c r="G13" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
       <c r="J13" s="84" t="s">
         <v>96</v>
       </c>
@@ -7342,47 +7344,47 @@
     </row>
     <row r="25" spans="2:15" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="26" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="160" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="G26" s="145" t="s">
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="G26" s="160" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="L26" s="145" t="s">
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="L26" s="160" t="s">
         <v>175</v>
       </c>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
     </row>
     <row r="27" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
       <c r="E27" s="84">
         <v>15</v>
       </c>
-      <c r="G27" s="146" t="s">
+      <c r="G27" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
       <c r="J27" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="L27" s="146" t="s">
+      <c r="L27" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
       <c r="O27" s="84" t="s">
         <v>187</v>
       </c>
@@ -7737,33 +7739,33 @@
     </row>
     <row r="39" spans="2:15" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="40" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="G40" s="145" t="s">
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="G40" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="2:15" ht="19.95" customHeight="1">
-      <c r="B41" s="146" t="s">
+      <c r="B41" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="161"/>
       <c r="E41" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G41" s="146" t="s">
+      <c r="G41" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
       <c r="J41" s="84" t="s">
         <v>187</v>
       </c>
@@ -7881,7 +7883,7 @@
       <c r="C46" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D46" s="174" t="s">
+      <c r="D46" s="176" t="s">
         <v>253</v>
       </c>
       <c r="E46" s="70" t="str">
@@ -7907,7 +7909,7 @@
       <c r="C47" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="175"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="70" t="str">
         <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,OR("해양학", "지구시스템과학"),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -8043,33 +8045,33 @@
     </row>
     <row r="53" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="54" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
-      <c r="G54" s="145" t="s">
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="G54" s="160" t="s">
         <v>206</v>
       </c>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="145"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="160"/>
     </row>
     <row r="55" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B55" s="146" t="s">
+      <c r="B55" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
+      <c r="C55" s="161"/>
+      <c r="D55" s="161"/>
       <c r="E55" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="146" t="s">
+      <c r="G55" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="161"/>
       <c r="J55" s="84" t="s">
         <v>96</v>
       </c>
@@ -8359,33 +8361,33 @@
     </row>
     <row r="68" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="69" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B69" s="145" t="s">
+      <c r="B69" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="145"/>
-      <c r="D69" s="145"/>
-      <c r="E69" s="145"/>
-      <c r="G69" s="145" t="s">
+      <c r="C69" s="160"/>
+      <c r="D69" s="160"/>
+      <c r="E69" s="160"/>
+      <c r="G69" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="H69" s="145"/>
-      <c r="I69" s="145"/>
-      <c r="J69" s="145"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="160"/>
+      <c r="J69" s="160"/>
     </row>
     <row r="70" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B70" s="146" t="s">
+      <c r="B70" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="146"/>
-      <c r="D70" s="146"/>
+      <c r="C70" s="161"/>
+      <c r="D70" s="161"/>
       <c r="E70" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G70" s="146" t="s">
+      <c r="G70" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H70" s="146"/>
-      <c r="I70" s="146"/>
+      <c r="H70" s="161"/>
+      <c r="I70" s="161"/>
       <c r="J70" s="84" t="s">
         <v>187</v>
       </c>
@@ -8702,33 +8704,33 @@
     </row>
     <row r="84" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="85" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B85" s="145" t="s">
+      <c r="B85" s="160" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
-      <c r="G85" s="145" t="s">
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="160"/>
+      <c r="G85" s="160" t="s">
         <v>237</v>
       </c>
-      <c r="H85" s="145"/>
-      <c r="I85" s="145"/>
-      <c r="J85" s="145"/>
+      <c r="H85" s="160"/>
+      <c r="I85" s="160"/>
+      <c r="J85" s="160"/>
     </row>
     <row r="86" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B86" s="146" t="s">
+      <c r="B86" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="146"/>
-      <c r="D86" s="146"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="161"/>
       <c r="E86" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="G86" s="146" t="s">
+      <c r="G86" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H86" s="146"/>
-      <c r="I86" s="146"/>
+      <c r="H86" s="161"/>
+      <c r="I86" s="161"/>
       <c r="J86" s="84" t="s">
         <v>187</v>
       </c>
@@ -9022,6 +9024,29 @@
     <row r="99" spans="7:10" ht="19.95" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:I13"/>
@@ -9030,29 +9055,6 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:I86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
